--- a/docs/StructureDefinition-MedicationRequestUnsigned.xlsx
+++ b/docs/StructureDefinition-MedicationRequestUnsigned.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.6</t>
+    <t>1.4.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T11:22:00+00:00</t>
+    <t>2025-04-18T16:44:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-MedicationRequestUnsigned.xlsx
+++ b/docs/StructureDefinition-MedicationRequestUnsigned.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.15</t>
+    <t>1.5.11</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T18:27:21+00:00</t>
+    <t>2025-05-08T08:24:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-MedicationRequestUnsigned.xlsx
+++ b/docs/StructureDefinition-MedicationRequestUnsigned.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:24:02+00:00</t>
+    <t>2025-05-08T08:54:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-MedicationRequestUnsigned.xlsx
+++ b/docs/StructureDefinition-MedicationRequestUnsigned.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.11</t>
+    <t>1.5.16</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:54:46+00:00</t>
+    <t>2025-05-12T19:54:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-MedicationRequestUnsigned.xlsx
+++ b/docs/StructureDefinition-MedicationRequestUnsigned.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.16</t>
+    <t>1.5.23</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T19:54:30+00:00</t>
+    <t>2025-05-23T16:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -679,7 +679,15 @@
     <t>1225: source value based on ORDER - ORDER # (100-.01) if package like 'PS%' &amp; class 'I' &amp; [exclude supply]</t>
   </si>
   <si>
-    <t>RadOrder.OrderItem[Order].Description,RadOrder.Extension[ResultExtension].null,LabOrder.OrderItem[Order].Description,LabOrder.Priority.Description,OtherOrder.OrderCategory.Description,OtherOrder.OrderItem[Order].Description,OtherOrder.OrderStatus[VA.VAStatus].Description,OtherOrder.Priority.Description,OtherOrder.OrderItem[Order].OriginalText</t>
+    <t>RadOrder.OrderItem[Order].Description
+RadOrder.Extension[ResultExtension].null
+LabOrder.OrderItem[Order].Description
+LabOrder.Priority.Description
+OtherOrder.OrderCategory.Description
+OtherOrder.OrderItem[Order].Description
+OtherOrder.OrderStatus[VA.VAStatus].Description
+OtherOrder.Priority.Description
+OtherOrder.OrderItem[Order].OriginalText</t>
   </si>
   <si>
     <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
@@ -1007,7 +1015,8 @@
     <t>1549: source value based on ORDER - ITEM ORDERED (100-7)</t>
   </si>
   <si>
-    <t>CPRSOrder.CPRSOrder.ItemOrderedParentFileIEN,CPRSOrder.CPRSOrder.ItemOrderedParentFileNumber</t>
+    <t>CPRSOrder.CPRSOrder.ItemOrderedParentFileIEN
+CPRSOrder.CPRSOrder.ItemOrderedParentFileNumber</t>
   </si>
   <si>
     <t>MedicationRequest.medication[x]:medicationReference</t>
@@ -1042,7 +1051,11 @@
     <t>1226: reference based on ORDER - OBJECT OF ORDER (100-.02)</t>
   </si>
   <si>
-    <t>CPRSOrder.OrderAction.ObjectOfOrderIEN,CPRSOrder.OrderAction.ObjectofOrderLabReferralPatientIEN,CPRSOrder.OrderAction.ObjectOfOrderPatientIEN,CPRSOrder.OrderAction.ParentFileNumber,CPRSOrder.OrderedItem.PatientIEN</t>
+    <t>CPRSOrder.OrderAction.ObjectOfOrderIEN
+CPRSOrder.OrderAction.ObjectofOrderLabReferralPatientIEN
+CPRSOrder.OrderAction.ObjectOfOrderPatientIEN
+CPRSOrder.OrderAction.ParentFileNumber
+CPRSOrder.OrderedItem.PatientIEN</t>
   </si>
   <si>
     <t>RadOrder.Extension[ResultExtension].null</t>
@@ -1131,13 +1144,24 @@
     <t>1228: source value based on ORDER - WHEN ENTERED (100-4)</t>
   </si>
   <si>
-    <t>CPRSOrder.CPRSOrder.EnteredDateTime,CPRSOrder.CPRSOrder.EnteredVistaDate,CPRSOrder.OrderedItem.EnteredDateTime,CPRSOrder.OrderedItem.EnteredVistaDate</t>
-  </si>
-  <si>
-    <t>RadOrder.EnteredOn,RadOrder.NationalItem[CodeTable].SDACodingStandard,RadOrder.Extension[ResultExtension].CaseNumber,LabOrder.EnteredOn,LabOrder.NationalItem[CodeTable].SDACodingStandard,OtherOrder.EnteredOn,Medication.EnteredOn</t>
-  </si>
-  <si>
-    <t>med.ordered,order.entered,pharmacy (med).ordered</t>
+    <t>CPRSOrder.CPRSOrder.EnteredDateTime
+CPRSOrder.CPRSOrder.EnteredVistaDate
+CPRSOrder.OrderedItem.EnteredDateTime
+CPRSOrder.OrderedItem.EnteredVistaDate</t>
+  </si>
+  <si>
+    <t>RadOrder.EnteredOn
+RadOrder.NationalItem[CodeTable].SDACodingStandard
+RadOrder.Extension[ResultExtension].CaseNumber
+LabOrder.EnteredOn
+LabOrder.NationalItem[CodeTable].SDACodingStandard
+OtherOrder.EnteredOn
+Medication.EnteredOn</t>
+  </si>
+  <si>
+    <t>med.ordered
+order.entered
+pharmacy (med).ordered</t>
   </si>
   <si>
     <t>Request.authoredOn</t>
@@ -1171,7 +1195,8 @@
     <t>1227: reference based on ORDER - CURRENT AGENT/PROVIDER (100-1)</t>
   </si>
   <si>
-    <t>med.orderingProvider (&gt;200-.01),pharmacy (med).orderingProvider (&gt;200-.01)</t>
+    <t>med.orderingProvider (&gt;200-.01)
+pharmacy (med).orderingProvider (&gt;200-.01)</t>
   </si>
   <si>
     <t>Request.requester</t>
@@ -1703,13 +1728,24 @@
     <t>1234: source value based on ORDER - START DATE (100-21)</t>
   </si>
   <si>
-    <t>CPRSOrder.CPRSOrder.OrderStartDateTime,CPRSOrder.CPRSOrder.OrderStartVistaDate,CPRSOrder.OrderAction.OrderStartDateTime,CPRSOrder.OrderedItem.OrderStartDateSID,CPRSOrder.OrderedItem.OrderStartDateTime,CPRSOrder.OrderedItem.OrderStartVistaDate</t>
-  </si>
-  <si>
-    <t>RadOrder.FromTime,LabOrder.FromTime,LabOrder.SpecimenCollectedTime,OtherOrder.FromTime,Medication.FromTime</t>
-  </si>
-  <si>
-    <t>med.start,order.start,pharmacy (med).start</t>
+    <t>CPRSOrder.CPRSOrder.OrderStartDateTime
+CPRSOrder.CPRSOrder.OrderStartVistaDate
+CPRSOrder.OrderAction.OrderStartDateTime
+CPRSOrder.OrderedItem.OrderStartDateSID
+CPRSOrder.OrderedItem.OrderStartDateTime
+CPRSOrder.OrderedItem.OrderStartVistaDate</t>
+  </si>
+  <si>
+    <t>RadOrder.FromTime
+LabOrder.FromTime
+LabOrder.SpecimenCollectedTime
+OtherOrder.FromTime
+Medication.FromTime</t>
+  </si>
+  <si>
+    <t>med.start
+order.start
+pharmacy (med).start</t>
   </si>
   <si>
     <t>./low</t>
@@ -1742,13 +1778,22 @@
     <t>1235: source value based on ORDER - STOP DATE (100-22)</t>
   </si>
   <si>
-    <t>CPRSOrder.CPRSOrder.OrderStopDateTime,CPRSOrder.CPRSOrder.OrderStopVistaDate,CPRSOrder.OrderedItem.OrderStopDateSID,CPRSOrder.OrderedItem.OrderStopDateTime,CPRSOrder.OrderedItem.OrderStopVistaDate</t>
-  </si>
-  <si>
-    <t>RadOrder.ToTime,LabOrder.ToTime,OtherOrder.ToTime,Medication.ToTime</t>
-  </si>
-  <si>
-    <t>med.stop,order.stop,pharmacy (med).stop</t>
+    <t>CPRSOrder.CPRSOrder.OrderStopDateTime
+CPRSOrder.CPRSOrder.OrderStopVistaDate
+CPRSOrder.OrderedItem.OrderStopDateSID
+CPRSOrder.OrderedItem.OrderStopDateTime
+CPRSOrder.OrderedItem.OrderStopVistaDate</t>
+  </si>
+  <si>
+    <t>RadOrder.ToTime
+LabOrder.ToTime
+OtherOrder.ToTime
+Medication.ToTime</t>
+  </si>
+  <si>
+    <t>med.stop
+order.stop
+pharmacy (med).stop</t>
   </si>
   <si>
     <t>./high</t>
@@ -2569,7 +2614,10 @@
     <t>1232: reference based on ORDER - REPLACED ORDER (100-9)</t>
   </si>
   <si>
-    <t>RadOrder.Extension[OrderExtension].ReplacedOrder,LabOrder.Extension[LabOrderExtension].ReplacedOrder,OtherOrder.Extension[OrderExtension].ReplacedOrder,Medication.Extension[MedicationExtension].ReplacedOrder</t>
+    <t>RadOrder.Extension[OrderExtension].ReplacedOrder
+LabOrder.Extension[LabOrderExtension].ReplacedOrder
+OtherOrder.Extension[OrderExtension].ReplacedOrder
+Medication.Extension[MedicationExtension].ReplacedOrder</t>
   </si>
   <si>
     <t>Request.replaces</t>
@@ -2985,9 +3033,9 @@
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="101.51953125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="212.69921875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="63.58984375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="48.37890625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="47.5234375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="39.4609375" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="25.4609375" customWidth="true" bestFit="true"/>
     <col min="42" max="42" width="255.0" customWidth="true" bestFit="true"/>
     <col min="43" max="43" width="245.42578125" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-MedicationRequestUnsigned.xlsx
+++ b/docs/StructureDefinition-MedicationRequestUnsigned.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.23</t>
+    <t>1.5.30</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-23T16:28:56+00:00</t>
+    <t>2025-05-25T09:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-MedicationRequestUnsigned.xlsx
+++ b/docs/StructureDefinition-MedicationRequestUnsigned.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.30</t>
+    <t>1.6.49</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-25T09:23:19+00:00</t>
+    <t>2025-06-13T16:10:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
